--- a/DatabaseUpdate/ExcelFiles/Rooms.xlsx
+++ b/DatabaseUpdate/ExcelFiles/Rooms.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Rooms Data" sheetId="2" r:id="rId2"/>
+    <x:sheet name="Data" sheetId="2" r:id="rId2"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <x:si>
     <x:t>Id</x:t>
   </x:si>
@@ -25,6 +25,15 @@
     <x:t>Name</x:t>
   </x:si>
   <x:si>
+    <x:t>BeginDateTime</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EndDateTime</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Options</x:t>
+  </x:si>
+  <x:si>
     <x:t>1</x:t>
   </x:si>
   <x:si>
@@ -40,13 +49,34 @@
     <x:t>3</x:t>
   </x:si>
   <x:si>
-    <x:t>Операционная №1</x:t>
+    <x:t>Кабинет №3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5</x:t>
   </x:si>
   <x:si>
     <x:t>4</x:t>
   </x:si>
   <x:si>
-    <x:t>Кабинет главгада</x:t>
+    <x:t>Кабинет №4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Кабинет №5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>КДЛ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Лаборатория</x:t>
+  </x:si>
+  <x:si>
+    <x:t>|laboratoryRoom|</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -92,13 +122,20 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="1">
+  <x:cellStyleXfs count="2">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="1">
+  <x:cellXfs count="2">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -397,13 +434,13 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:C5"/>
+  <x:dimension ref="A1:F7"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:3">
+    <x:row r="1" spans="1:6">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -413,49 +450,124 @@
       <x:c r="C1" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
-    </x:row>
-    <x:row r="2" spans="1:3">
+      <x:c r="D1" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:6">
       <x:c r="A2" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:3">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D2" s="1">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E2" s="1">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s"/>
+    </x:row>
+    <x:row r="3" spans="1:6">
       <x:c r="A3" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:3">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D3" s="1">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E3" s="1">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s"/>
+    </x:row>
+    <x:row r="4" spans="1:6">
       <x:c r="A4" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:3">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D4" s="1">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E4" s="1">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:6">
       <x:c r="A5" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D5" s="1">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E5" s="1">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:6">
+      <x:c r="A6" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D6" s="1">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E6" s="1">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:6">
+      <x:c r="A7" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D7" s="1">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E7" s="1">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
+        <x:v>20</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
